--- a/Documents/Deliverable_2/CSwap_Deliverable_2_SprintBacklog_2.xlsx
+++ b/Documents/Deliverable_2/CSwap_Deliverable_2_SprintBacklog_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ced1\Documents\GitHub\COS420_Project\Documents\Deliverable_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonyc\Documents\GitHub\COS420_Project\Documents\Deliverable_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF165E2B-6EF3-4AA4-90AB-5669F23ED3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F119C8-D802-4538-BC4B-E49966285611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7970" yWindow="2290" windowWidth="28800" windowHeight="17030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
@@ -466,23 +466,23 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="81.625" customWidth="1"/>
-    <col min="3" max="3" width="35.875" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="81.58203125" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="43.25" customWidth="1"/>
-    <col min="6" max="6" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="9.58203125" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="18.75" customWidth="1"/>
-    <col min="9" max="9" width="27.875" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -534,13 +534,13 @@
         <v>2</v>
       </c>
       <c r="H2" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -563,13 +563,13 @@
         <v>2</v>
       </c>
       <c r="H3" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -592,13 +592,13 @@
         <v>0.5</v>
       </c>
       <c r="H4" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -621,13 +621,13 @@
         <v>1.5</v>
       </c>
       <c r="H5" s="7">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -650,7 +650,7 @@
         <v>1.5</v>
       </c>
       <c r="H6" s="6">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>17</v>
@@ -671,9 +671,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="26" width="10.625" customWidth="1"/>
+    <col min="1" max="26" width="10.58203125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Documents/Deliverable_2/CSwap_Deliverable_2_SprintBacklog_2.xlsx
+++ b/Documents/Deliverable_2/CSwap_Deliverable_2_SprintBacklog_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonyc\Documents\GitHub\COS420_Project\Documents\Deliverable_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F119C8-D802-4538-BC4B-E49966285611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B386692E-88B8-4B00-B08C-19A7C210DA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7970" yWindow="2290" windowWidth="28800" windowHeight="17030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,7 +466,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H2" sqref="H2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -621,7 +621,7 @@
         <v>1.5</v>
       </c>
       <c r="H5" s="7">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>15</v>
@@ -650,7 +650,7 @@
         <v>1.5</v>
       </c>
       <c r="H6" s="6">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>17</v>

--- a/Documents/Deliverable_2/CSwap_Deliverable_2_SprintBacklog_2.xlsx
+++ b/Documents/Deliverable_2/CSwap_Deliverable_2_SprintBacklog_2.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tonyc\Documents\GitHub\COS420_Project\Documents\Deliverable_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ced1\Documents\GitHub\COS420_Project\Documents\Deliverable_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B386692E-88B8-4B00-B08C-19A7C210DA6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595D77EB-B66F-4216-B28D-766EAEE321F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7970" yWindow="2290" windowWidth="28800" windowHeight="17030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-375" yWindow="1260" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprint 1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -130,12 +130,30 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8BC34A"/>
+        <bgColor rgb="FF8BC34A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEF7E3"/>
+        <bgColor rgb="FFEEF7E3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -165,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,6 +217,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,24 +508,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="81.58203125" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" customWidth="1"/>
+    <col min="2" max="2" width="81.625" customWidth="1"/>
+    <col min="3" max="3" width="35.875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="43.25" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
     <col min="9" max="9" width="30.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,7 +554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -540,7 +583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -569,7 +612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -598,7 +641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -627,7 +670,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -667,15 +710,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="10.58203125" customWidth="1"/>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="84.625" customWidth="1"/>
+    <col min="3" max="3" width="37.75" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="21.25" customWidth="1"/>
+    <col min="6" max="26" width="10.625" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>0</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="18">
+        <v>2</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="22">
+        <v>2</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="18">
+        <v>2</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="22">
+        <v>2</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="24">
+        <v>2</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
